--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="734" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="839" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -194,7 +194,13 @@
     <t>$ 101.92</t>
   </si>
   <si>
-    <t>$ 92.05</t>
+    <t>Repayment (at time of disbursement)</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +796,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,14 +883,14 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -915,16 +921,16 @@
         <v>101.92</v>
       </c>
       <c r="I3" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -1453,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1588,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="F4" s="6">
         <v>785.8</v>
@@ -1597,7 +1603,7 @@
         <v>101.92</v>
       </c>
       <c r="H4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1622,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="6">
-        <v>201.92</v>
+        <v>101.92</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1631,7 +1637,7 @@
         <v>101.92</v>
       </c>
       <c r="H5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1653,10 +1659,10 @@
         <v>42005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8">
-        <v>10000</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1673,8 +1679,42 @@
       <c r="J6" s="8">
         <v>10000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>508</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,9 +2188,8 @@
         <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -2174,9 +2213,8 @@
       <c r="G6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,8 +2225,6 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -2213,9 +2249,8 @@
         <v>44</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -2239,9 +2274,8 @@
       <c r="G9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="839" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="839" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -13,15 +13,14 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repaymentdisbursement" sheetId="9" r:id="rId6"/>
-    <sheet name="Acc_Repayment" sheetId="8" r:id="rId7"/>
-    <sheet name="Acc_Periodic" sheetId="7" r:id="rId8"/>
+    <sheet name="Acc_Periodic" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -158,15 +157,9 @@
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -179,12 +172,6 @@
     <t>L448</t>
   </si>
   <si>
-    <t>L452</t>
-  </si>
-  <si>
-    <t>$ 887.72</t>
-  </si>
-  <si>
     <t>$ 10,000</t>
   </si>
   <si>
@@ -197,10 +184,7 @@
     <t>Repayment (at time of disbursement)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -301,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,6 +320,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,15 +638,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -1461,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +1647,7 @@
         <v>42005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
@@ -1726,7 +1714,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B2" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1774,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1815,7 +1803,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -1829,7 +1817,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1862,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>35</v>
@@ -1887,7 +1875,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1901,7 +1889,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
@@ -1913,7 +1901,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="13"/>
     </row>
@@ -1924,139 +1912,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1361</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1362</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1363</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +1982,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2" s="11"/>
     </row>
@@ -2147,11 +2006,11 @@
         <v>36</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,9 +2046,10 @@
       <c r="G5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -2211,10 +2071,11 @@
         <v>36</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,8 +2109,8 @@
       <c r="G8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>59</v>
+      <c r="H8" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2272,10 +2133,10 @@
         <v>36</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="839" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="839" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -781,10 +781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,12 +802,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,17 +848,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -884,8 +886,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -923,17 +926,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -969,17 +973,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1015,17 +1020,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1061,17 +1067,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1107,17 +1114,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1153,17 +1161,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1199,17 +1208,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1245,17 +1255,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1291,17 +1302,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1337,17 +1349,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1383,17 +1396,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1429,13 +1443,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1914,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
